--- a/user-data/educ-mis/educ-mis.xlsx
+++ b/user-data/educ-mis/educ-mis.xlsx
@@ -600,7 +600,7 @@
     <t>Units of measure: NA</t>
   </si>
   <si>
-    <t>Source: UNICEF Country Annual Reports. Link: www.unicef.org/about/annualreport/index_82089.html ï¾- UIS Data Quality Assessment Framework (DQAF) output. Link: www.poledakar.com/dqaf/index.php?title=DQAF_Events</t>
+    <t>Source: UNICEF Country Annual Reports. Link: www.unicef.org/about/annualreport/index_82089.html ï¿½- UIS Data Quality Assessment Framework (DQAF) output. Link: www.poledakar.com/dqaf/index.php?title=DQAF_Events</t>
   </si>
   <si>
     <t>Source-link: www.unicef.org/about/annualreport/index_82089.html; www.poledakar.com/dqaf/index.php?title=DQAF_Events</t>

--- a/user-data/educ-mis/educ-mis.xlsx
+++ b/user-data/educ-mis/educ-mis.xlsx
@@ -105,70 +105,70 @@
     <t>http://www.unicef.org/about/annualreport/files/Burundi_Annual_Report_2014.pdf</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>World Bank Cameroon Economic Update</t>
+  </si>
+  <si>
+    <t>http://www.worldbank.org/content/dam/Worldbank/document/Africa/Cameroon/Report/cameroon-economic-update-vol7.pdf</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>UNICEF Programme Report</t>
+  </si>
+  <si>
+    <t>http://www.educationandtransition.org/wp-content/uploads/2007/04/2011_CAR_EEPCT_report.pdf</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chad UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t>http://www.unicef.org/about/annualreport/files/Chad_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Comoros UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t>http://www.unicef.org/about/annualreport/files/Comoros_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>World Bank Cameroon Economic Update</t>
-  </si>
-  <si>
-    <t>http://www.worldbank.org/content/dam/Worldbank/document/Africa/Cameroon/Report/cameroon-economic-update-vol7.pdf</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>UNICEF Programme Report</t>
-  </si>
-  <si>
-    <t>http://www.educationandtransition.org/wp-content/uploads/2007/04/2011_CAR_EEPCT_report.pdf</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chad UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t>http://www.unicef.org/about/annualreport/files/Chad_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Comoros UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t>http://www.unicef.org/about/annualreport/files/Comoros_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>DJ</t>
@@ -441,7 +441,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>http://www.moeskn.org/index.php?option=com_content&amp;view=article&amp;id=92:education-management-information-service&amp;catid=25:education-services&amp;Itemid=101</t>
@@ -624,7 +624,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -1181,33 +1181,33 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1217,40 +1217,44 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1259,31 +1263,27 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">

--- a/user-data/educ-mis/educ-mis.xlsx
+++ b/user-data/educ-mis/educ-mis.xlsx
@@ -33,6 +33,18 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No information</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -51,52 +63,124 @@
     <t xml:space="preserve">http://www-wds.worldbank.org/external/default/WDSContentServer/WDSP/IB/2013/09/11/000356161_20130911153455/Rendered/PDF/665980PAD0Ango000PUBLIC00Box379825B.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SADC Peer Review Assessment Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/sadc_emis_norms_and_standards_peer_review_botswana.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
     <t xml:space="preserve">Burkina Faso</t>
   </si>
   <si>
-    <t xml:space="preserve">Grey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No information</t>
-  </si>
-  <si>
     <t xml:space="preserve">BI</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functioning</t>
-  </si>
-  <si>
     <t xml:space="preserve">Burundi UNICEF Annual Report 2014</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Burundi_Annual_Report_2014.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SADC Peer Review Assessment Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/sadc_emis_norms_and_standards_peer_review_botswana.pdf</t>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank Cameroon Economic Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.worldbank.org/content/dam/Worldbank/document/Africa/Cameroon/Report/cameroon-economic-update-vol7.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF Programme Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.educationandtransition.org/wp-content/uploads/2007/04/2011_CAR_EEPCT_report.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Chad_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Comoros_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAID EQUIP2 Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.equip123.net/webarticles/anmviewer.asp?a=666</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -111,66 +195,6 @@
     <t xml:space="preserve">http://www.afrimap.org/english/images/report/AfriMAP_DRC_Edn_full_EN.pdf and http://uil.unesco.org/home/news-target/adult-and-non-formal-education-in-the-democratic-republic-of-congos-education-management-information-system/85a181595078ce5f5c0d8657d012c539/</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF Programme Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.educationandtransition.org/wp-content/uploads/2007/04/2011_CAR_EEPCT_report.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Bank Cameroon Economic Update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.worldbank.org/content/dam/Worldbank/document/Africa/Cameroon/Report/cameroon-economic-update-vol7.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USAID EQUIP2 Programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.equip123.net/webarticles/anmviewer.asp?a=666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
@@ -183,388 +207,364 @@
     <t xml:space="preserve">http://www.worlded.org/WEIInternet/international/project/display.cfm?ctid=na&amp;cid=na&amp;tid=40&amp;id=172 and http://datatopics.worldbank.org/hnp/files/edstats/EGYesr02.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fhi360 report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fhi360.org/projects/program-education-development-equatorial-guinea-prodege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Education Planning Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://planipolis.iiep.unesco.org/upload/Eritrea/Eritrea-Education-Sector-Development-Plan_2013-02.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Education Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.moe.gov.et/English/Information/Documents/Education%20Statistics%20Annual%20Abstract%202006E.C%20(2013-2014%20G.C).pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Gambia_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana Education Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ghanaeducationdata.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Lesotho_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.moe.gov.lr/pages3.php?pgID=46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Libya_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Madagascar_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNESCO Data Quality Assessment Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.poledakar.com/dqaf/images/5/58/EdDQAF-Malawi-2011-Report-Final.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fhi360.org/sites/default/files/media/documents/EQUIP2%20LL%20EMIS%20AAR.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNESCO Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unesco.org/new/en/dakar/about-this-office/single-view/news/capacity_building_workshop_on_data_collection_on_tvet_in_mauritania/#.Vd8Qc_lVhBd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADEA EMIS Peer Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/mozambique_emis_peer_review_0.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF Report and Namibia UNICEF UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/namibia/UNICEF_2011_Ninnes_Trends_and_Gaps_final_combined.pdf and http://www.unicef.org/about/annualreport/files/Namibia_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria Education Management Information System (NEMIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fmenemis.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New system launched June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.moeskn.org/index.php?option=com_content&amp;view=article&amp;id=92:education-management-information-service&amp;catid=25:education-services&amp;Itemid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Education Education for All 2015 report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://unesdoc.unesco.org/images/0022/002299/229953e.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Sierra_Leone_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Document and Sierra Leone UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://planipolis.iiep.unesco.org/upload/Somalia/Somalia-South-Central-Zone-Education-Sector-Plan_2013-08.pdf and http://www.unicef.org/about/annualreport/files/Somalia_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.education.gov.za/EMIS/tabid/57/Default.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan EMIS website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.southsudanemis.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Sudan_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/sadc_emis_norms_and_standards_peer_review_report_swaziland.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.education.gov.tn/index.php?id=548&amp;lan=3#?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.equip123.net/webarticles/anmviewer.asp?a=331&amp;z=28</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
     <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Education Planning Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://planipolis.iiep.unesco.org/upload/Eritrea/Eritrea-Education-Sector-Development-Plan_2013-02.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Education Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.moe.gov.et/English/Information/Documents/Education%20Statistics%20Annual%20Abstract%202006E.C%20(2013-2014%20G.C).pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana Education Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ghanaeducationdata.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Gambia_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fhi360 report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.fhi360.org/projects/program-education-development-equatorial-guinea-prodege</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Comoros_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.moe.gov.lr/pages3.php?pgID=46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Lesotho_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Libya_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Madagascar_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.fhi360.org/sites/default/files/media/documents/EQUIP2%20LL%20EMIS%20AAR.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNESCO Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unesco.org/new/en/dakar/about-this-office/single-view/news/capacity_building_workshop_on_data_collection_on_tvet_in_mauritania/#.Vd8Qc_lVhBd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNESCO Data Quality Assessment Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.poledakar.com/dqaf/images/5/58/EdDQAF-Malawi-2011-Report-Final.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADEA EMIS Peer Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/mozambique_emis_peer_review_0.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF Report and Namibia UNICEF UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/namibia/UNICEF_2011_Ninnes_Trends_and_Gaps_final_combined.pdf and http://www.unicef.org/about/annualreport/files/Namibia_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria Education Management Information System (NEMIS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.fmenemis.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New system launched June 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Education Education for All 2015 report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://unesdoc.unesco.org/images/0022/002299/229953e.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Sudan_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Sierra_Leone_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government Document and Sierra Leone UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://planipolis.iiep.unesco.org/upload/Somalia/Somalia-South-Central-Zone-Education-Sector-Plan_2013-08.pdf and http://www.unicef.org/about/annualreport/files/Somalia_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan EMIS website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.southsudanemis.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.moeskn.org/index.php?option=com_content&amp;view=article&amp;id=92:education-management-information-service&amp;catid=25:education-services&amp;Itemid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/sadc_emis_norms_and_standards_peer_review_report_swaziland.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Chad_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.education.gov.tn/index.php?id=548&amp;lan=3#?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.equip123.net/webarticles/anmviewer.asp?a=331&amp;z=28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.education.gov.za/EMIS/tabid/57/Default.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1074,28 +1074,28 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2"/>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1105,33 +1105,33 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1141,89 +1141,89 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1233,10 +1233,10 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>42</v>
@@ -1253,33 +1253,33 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1289,10 +1289,10 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1305,10 +1305,10 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>54</v>
@@ -1325,573 +1325,577 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16"/>
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" t="s">
-        <v>89</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" t="s">
-        <v>121</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" t="s">
-        <v>146</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
         <v>147</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
         <v>148</v>
       </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>149</v>
-      </c>
-      <c r="F43" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
         <v>151</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
         <v>152</v>
       </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44"/>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
         <v>160</v>
@@ -1905,93 +1909,89 @@
         <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" t="s">
-        <v>175</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -2001,53 +2001,53 @@
         <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52"/>
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" t="s">
-        <v>183</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -2057,10 +2057,10 @@
         <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
         <v>186</v>
@@ -2077,10 +2077,10 @@
         <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
         <v>190</v>

--- a/user-data/educ-mis/educ-mis.xlsx
+++ b/user-data/educ-mis/educ-mis.xlsx
@@ -33,6 +33,18 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No information</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -51,52 +63,124 @@
     <t xml:space="preserve">http://www-wds.worldbank.org/external/default/WDSContentServer/WDSP/IB/2013/09/11/000356161_20130911153455/Rendered/PDF/665980PAD0Ango000PUBLIC00Box379825B.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SADC Peer Review Assessment Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/sadc_emis_norms_and_standards_peer_review_botswana.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
     <t xml:space="preserve">Burkina Faso</t>
   </si>
   <si>
-    <t xml:space="preserve">Grey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No information</t>
-  </si>
-  <si>
     <t xml:space="preserve">BI</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functioning</t>
-  </si>
-  <si>
     <t xml:space="preserve">Burundi UNICEF Annual Report 2014</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Burundi_Annual_Report_2014.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SADC Peer Review Assessment Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/sadc_emis_norms_and_standards_peer_review_botswana.pdf</t>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank Cameroon Economic Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.worldbank.org/content/dam/Worldbank/document/Africa/Cameroon/Report/cameroon-economic-update-vol7.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF Programme Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.educationandtransition.org/wp-content/uploads/2007/04/2011_CAR_EEPCT_report.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Chad_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Comoros_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USAID EQUIP2 Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.equip123.net/webarticles/anmviewer.asp?a=666</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -111,66 +195,6 @@
     <t xml:space="preserve">http://www.afrimap.org/english/images/report/AfriMAP_DRC_Edn_full_EN.pdf and http://uil.unesco.org/home/news-target/adult-and-non-formal-education-in-the-democratic-republic-of-congos-education-management-information-system/85a181595078ce5f5c0d8657d012c539/</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF Programme Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.educationandtransition.org/wp-content/uploads/2007/04/2011_CAR_EEPCT_report.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Bank Cameroon Economic Update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.worldbank.org/content/dam/Worldbank/document/Africa/Cameroon/Report/cameroon-economic-update-vol7.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USAID EQUIP2 Programme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.equip123.net/webarticles/anmviewer.asp?a=666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
@@ -183,388 +207,364 @@
     <t xml:space="preserve">http://www.worlded.org/WEIInternet/international/project/display.cfm?ctid=na&amp;cid=na&amp;tid=40&amp;id=172 and http://datatopics.worldbank.org/hnp/files/edstats/EGYesr02.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fhi360 report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fhi360.org/projects/program-education-development-equatorial-guinea-prodege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Education Planning Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://planipolis.iiep.unesco.org/upload/Eritrea/Eritrea-Education-Sector-Development-Plan_2013-02.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Education Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.moe.gov.et/English/Information/Documents/Education%20Statistics%20Annual%20Abstract%202006E.C%20(2013-2014%20G.C).pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Gambia_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana Education Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ghanaeducationdata.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Lesotho_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.moe.gov.lr/pages3.php?pgID=46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Libya_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Madagascar_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNESCO Data Quality Assessment Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.poledakar.com/dqaf/images/5/58/EdDQAF-Malawi-2011-Report-Final.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fhi360.org/sites/default/files/media/documents/EQUIP2%20LL%20EMIS%20AAR.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNESCO Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unesco.org/new/en/dakar/about-this-office/single-view/news/capacity_building_workshop_on_data_collection_on_tvet_in_mauritania/#.Vd8Qc_lVhBd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADEA EMIS Peer Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/mozambique_emis_peer_review_0.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF Report and Namibia UNICEF UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/namibia/UNICEF_2011_Ninnes_Trends_and_Gaps_final_combined.pdf and http://www.unicef.org/about/annualreport/files/Namibia_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria Education Management Information System (NEMIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fmenemis.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New system launched June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.moeskn.org/index.php?option=com_content&amp;view=article&amp;id=92:education-management-information-service&amp;catid=25:education-services&amp;Itemid=101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Education Education for All 2015 report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://unesdoc.unesco.org/images/0022/002299/229953e.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Sierra_Leone_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Document and Sierra Leone UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://planipolis.iiep.unesco.org/upload/Somalia/Somalia-South-Central-Zone-Education-Sector-Plan_2013-08.pdf and http://www.unicef.org/about/annualreport/files/Somalia_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.education.gov.za/EMIS/tabid/57/Default.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan EMIS website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.southsudanemis.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Sudan_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/sadc_emis_norms_and_standards_peer_review_report_swaziland.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.education.gov.tn/index.php?id=548&amp;lan=3#?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.equip123.net/webarticles/anmviewer.asp?a=331&amp;z=28</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
     <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Education Planning Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://planipolis.iiep.unesco.org/upload/Eritrea/Eritrea-Education-Sector-Development-Plan_2013-02.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Education Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.moe.gov.et/English/Information/Documents/Education%20Statistics%20Annual%20Abstract%202006E.C%20(2013-2014%20G.C).pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana Education Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ghanaeducationdata.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Gambia_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fhi360 report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.fhi360.org/projects/program-education-development-equatorial-guinea-prodege</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Comoros_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.moe.gov.lr/pages3.php?pgID=46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Lesotho_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Libya_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Madagascar_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.fhi360.org/sites/default/files/media/documents/EQUIP2%20LL%20EMIS%20AAR.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNESCO Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unesco.org/new/en/dakar/about-this-office/single-view/news/capacity_building_workshop_on_data_collection_on_tvet_in_mauritania/#.Vd8Qc_lVhBd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNESCO Data Quality Assessment Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.poledakar.com/dqaf/images/5/58/EdDQAF-Malawi-2011-Report-Final.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADEA EMIS Peer Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/mozambique_emis_peer_review_0.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF Report and Namibia UNICEF UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/namibia/UNICEF_2011_Ninnes_Trends_and_Gaps_final_combined.pdf and http://www.unicef.org/about/annualreport/files/Namibia_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria Education Management Information System (NEMIS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.fmenemis.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New system launched June 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Education Education for All 2015 report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://unesdoc.unesco.org/images/0022/002299/229953e.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Sudan_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Sierra_Leone_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government Document and Sierra Leone UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://planipolis.iiep.unesco.org/upload/Somalia/Somalia-South-Central-Zone-Education-Sector-Plan_2013-08.pdf and http://www.unicef.org/about/annualreport/files/Somalia_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan EMIS website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.southsudanemis.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.moeskn.org/index.php?option=com_content&amp;view=article&amp;id=92:education-management-information-service&amp;catid=25:education-services&amp;Itemid=101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.adeanet.org/portalv2/en/system/files/sadc_emis_norms_and_standards_peer_review_report_swaziland.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Chad_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.education.gov.tn/index.php?id=548&amp;lan=3#?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.equip123.net/webarticles/anmviewer.asp?a=331&amp;z=28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.education.gov.za/EMIS/tabid/57/Default.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -1074,28 +1074,28 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2"/>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1105,33 +1105,33 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1141,44 +1141,40 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1186,80 +1182,84 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1269,10 +1269,10 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
@@ -1289,10 +1289,10 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -1305,10 +1305,10 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>54</v>
@@ -1325,573 +1325,577 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16"/>
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" t="s">
-        <v>89</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" t="s">
-        <v>121</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" t="s">
-        <v>146</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
         <v>147</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
         <v>148</v>
       </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>149</v>
-      </c>
-      <c r="F43" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
         <v>151</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
         <v>152</v>
       </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44"/>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
         <v>160</v>
@@ -1905,93 +1909,89 @@
         <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F51" t="s">
-        <v>175</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -2001,53 +2001,53 @@
         <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52"/>
-      <c r="F52"/>
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" t="s">
-        <v>183</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -2057,10 +2057,10 @@
         <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
         <v>186</v>
@@ -2077,10 +2077,10 @@
         <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
         <v>190</v>

--- a/user-data/educ-mis/educ-mis.xlsx
+++ b/user-data/educ-mis/educ-mis.xlsx
@@ -15,10 +15,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">colour</t>
@@ -27,10 +27,10 @@
     <t xml:space="preserve">detail</t>
   </si>
   <si>
-    <t xml:space="preserve">source-title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source-link</t>
+    <t xml:space="preserve">source_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_link</t>
   </si>
   <si>
     <t xml:space="preserve">DZ</t>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">Grey</t>
+    <t xml:space="preserve">grey</t>
   </si>
   <si>
     <t xml:space="preserve">No information</t>
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange</t>
+    <t xml:space="preserve">orange</t>
   </si>
   <si>
     <t xml:space="preserve">Partial</t>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">Botswana</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
+    <t xml:space="preserve">green</t>
   </si>
   <si>
     <t xml:space="preserve">Functioning</t>
@@ -105,70 +105,70 @@
     <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Burundi_Annual_Report_2014.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank Cameroon Economic Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.worldbank.org/content/dam/Worldbank/document/Africa/Cameroon/Report/cameroon-economic-update-vol7.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNICEF Programme Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.educationandtransition.org/wp-content/uploads/2007/04/2011_CAR_EEPCT_report.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Chad_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros UNICEF Annual Report 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Comoros_Annual_Report_2014.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Bank Cameroon Economic Update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.worldbank.org/content/dam/Worldbank/document/Africa/Cameroon/Report/cameroon-economic-update-vol7.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNICEF Programme Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.educationandtransition.org/wp-content/uploads/2007/04/2011_CAR_EEPCT_report.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Chad_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros UNICEF Annual Report 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.unicef.org/about/annualreport/files/Comoros_Annual_Report_2014.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">DJ</t>
@@ -594,37 +594,37 @@
     <t xml:space="preserve">Name: educ-mis</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: A national administrative system recording data from all education facilities on staff, logistics, performance etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units of measure: NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: UNICEF Country Annual Reports: www.unicef.org/about/annualreport/index_82089.html; UIS Data Quality Assessment Framework (DQAF) output: www.poledakar.com/dqaf/index.php?title=DQAF_Events.</t>
+    <t xml:space="preserve">Description: A national administrative system recording data from all education facilities on staff, logistics, performance etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units of measure:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -977,15 +977,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -999,31 +1003,26 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
         <v>203</v>
       </c>
     </row>
@@ -1177,33 +1176,33 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1213,40 +1212,44 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1255,31 +1258,27 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>49</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">

--- a/user-data/educ-mis/educ-mis.xlsx
+++ b/user-data/educ-mis/educ-mis.xlsx
@@ -600,7 +600,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 76</t>
+    <t xml:space="preserve">Source: 77</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 15</t>

--- a/user-data/educ-mis/educ-mis.xlsx
+++ b/user-data/educ-mis/educ-mis.xlsx
@@ -600,10 +600,10 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source-link: 15</t>
+    <t xml:space="preserve">Source: 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 17</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/educ-mis/educ-mis.xlsx
+++ b/user-data/educ-mis/educ-mis.xlsx
@@ -600,10 +600,10 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source-link: 15</t>
+    <t xml:space="preserve">Source: 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 17</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/educ-mis/educ-mis.xlsx
+++ b/user-data/educ-mis/educ-mis.xlsx
@@ -600,7 +600,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 79</t>
+    <t xml:space="preserve">Source: 78</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 17</t>
